--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Sweden Allsvenskan_2024.xlsx
@@ -50429,31 +50429,31 @@
         <v>2.61</v>
       </c>
       <c r="AU238">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV238">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW238">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="AX238">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY238">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="AZ238">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BA238">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BB238">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC238">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BD238">
         <v>2.07</v>
